--- a/biology/Botanique/Rumex_à_feuilles_de_gouet/Rumex_à_feuilles_de_gouet.xlsx
+++ b/biology/Botanique/Rumex_à_feuilles_de_gouet/Rumex_à_feuilles_de_gouet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rumex_%C3%A0_feuilles_de_gouet</t>
+          <t>Rumex_à_feuilles_de_gouet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rumex arifolius, le Rumex à feuilles d'arum, Rumex à feuilles de gouet ou Rumex alpestre, est une espèce de plantes à fleurs de la famille des Polygonaceae et du genre Rumex.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rumex_%C3%A0_feuilles_de_gouet</t>
+          <t>Rumex_à_feuilles_de_gouet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace de 30 cm à un mètre de hauteur, verte, à fibres radicales grêles. La tige est dressée, simple, rameuse au sommet, à rameaux dressés. Les feuilles sont larges, molles, minces, ovales-hastées, entières, à oreillettes courtes et divergentes, à nervures saillantes, les radicales peu nombreuses et courtes, les caulinaires allongées et embrassantes. La gaine stipulaire est courte, tronquée et entière, rarement longuement ciliée[2].
-Les fleurs sont dioïques, en panicule longue et nue. Les valves fructifères sont membraneuses, suborbiculaires en cœur, entières, munies à la base d'une petite écaille[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 30 cm à un mètre de hauteur, verte, à fibres radicales grêles. La tige est dressée, simple, rameuse au sommet, à rameaux dressés. Les feuilles sont larges, molles, minces, ovales-hastées, entières, à oreillettes courtes et divergentes, à nervures saillantes, les radicales peu nombreuses et courtes, les caulinaires allongées et embrassantes. La gaine stipulaire est courte, tronquée et entière, rarement longuement ciliée.
+Les fleurs sont dioïques, en panicule longue et nue. Les valves fructifères sont membraneuses, suborbiculaires en cœur, entières, munies à la base d'une petite écaille.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rumex_%C3%A0_feuilles_de_gouet</t>
+          <t>Rumex_à_feuilles_de_gouet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de cette espèce comprend l'Europe, le Caucase, le Kazakhstan, la Russie et la Corée[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de cette espèce comprend l'Europe, le Caucase, le Kazakhstan, la Russie et la Corée.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rumex_%C3%A0_feuilles_de_gouet</t>
+          <t>Rumex_à_feuilles_de_gouet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [4]. Elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient être menacées si des mesures de conservation spécifiques n'étaient pas prises, dans la région Corse.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante . Elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient être menacées si des mesures de conservation spécifiques n'étaient pas prises, dans la région Corse.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rumex_%C3%A0_feuilles_de_gouet</t>
+          <t>Rumex_à_feuilles_de_gouet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (13 mai 2021)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (13 mai 2021) :
 variété Rumex arifolius var. carpathicus Zapal.
-Selon l'INPN      (13 mai 2021)[1] :
+Selon l'INPN      (13 mai 2021) :
 sous-espèce Rumex arifolius All., 1773 subsp. arifolius
 sous-espèce Rumex arifolius subsp. amplexicaulis (Lapeyr.) Nyman, 1881</t>
         </is>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rumex_%C3%A0_feuilles_de_gouet</t>
+          <t>Rumex_à_feuilles_de_gouet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,40 +659,42 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite par Carlo Allioni en 1773, qui la classe dans le genre Rumex  sous le nom binominal Rumex arifolius[1].
-En plus de ses nom recommandés ou typiques « Rumex à feuilles d'arum », « Rumex à feuilles de gouet » ou « Rumex alpestre »[2], cette espèce se nomme également en français « Oseille à feuilles d'arum », « Oseille des prés », « Rumex à feuilles embrassantes » ou « Surette »[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite par Carlo Allioni en 1773, qui la classe dans le genre Rumex  sous le nom binominal Rumex arifolius.
+En plus de ses nom recommandés ou typiques « Rumex à feuilles d'arum », « Rumex à feuilles de gouet » ou « Rumex alpestre », cette espèce se nomme également en français « Oseille à feuilles d'arum », « Oseille des prés », « Rumex à feuilles embrassantes » ou « Surette ».
 Rumex arifolius a pour synonymes :
-Acetosa alpestris (Jacq.) Á.Löve &amp; D.Löve[1]
-Acetosa alpestris subsp. carpatica (Zapal.) Dostál[3]
-Acetosa alpina Mill., 1768[1],[3]
-Acetosa alpina subsp. amplexicaulis (Lapeyr.) Holub[3]
-Acetosa arifolia (All.) Friche-Joset &amp; Montandon, 1856[1]
-Acetosa arifolia (All.) Schur[3]
-Acetosa pratensis subsp. arifolia (All.) Á.Löve, 1967[1]
-Lapathum alpestre Bubani, 1897[1]
-Lapathum alpestre (Jacq.) Scop., 1771[1]
-Lapathum montanum Bubani[3]
-Rumex acetosa subsp. alpestris (Desf.) Á.Löve, 1944[1]
-Rumex acetosa subsp. arifolius (All.) Blytt &amp; O.C.Dahl, 1903[1]
-Rumex acetosa subsp. amplexicaulis (Lapeyr.) O.Bolòs &amp; Vigo[3]
-Rumex acetosa subsp. lapponicus Hiitonen, 1933[1]
-Rumex acetosa subsp. montanus (Desf.) Berher, 1887[1]
-Rumex allionii Link, 1829[1],[3]
-Rumex alpestris Jacq., 1762[1]
-Rumex amplexicaulis Lapeyr.[3]
-Rumex carpaticus Rech.f.[1]
-Rumex carpaticus (Zapal.) Zapal.[3]
-Rumex dimorphus Gren.[3]
-Rumex erythrocarpus Gand., 1875[1],[3]
-Rumex hispanicus C.C.Gmel., 1806[1],[3]
-Rumex italicus Campd.[3]
-Rumex lapponicus (Hiitonen) Czernov, 1956[1]
-Rumex macrophyllus Campd., 1819[1],[3]
-Rumex montanus Desf., 1815[1],[3]
-Rumex pilatensis Gand., 1875[1],[3]
-Rumex pseudoamplexicaulis Guadagno, 1926[1]
+Acetosa alpestris (Jacq.) Á.Löve &amp; D.Löve
+Acetosa alpestris subsp. carpatica (Zapal.) Dostál
+Acetosa alpina Mill., 1768,
+Acetosa alpina subsp. amplexicaulis (Lapeyr.) Holub
+Acetosa arifolia (All.) Friche-Joset &amp; Montandon, 1856
+Acetosa arifolia (All.) Schur
+Acetosa pratensis subsp. arifolia (All.) Á.Löve, 1967
+Lapathum alpestre Bubani, 1897
+Lapathum alpestre (Jacq.) Scop., 1771
+Lapathum montanum Bubani
+Rumex acetosa subsp. alpestris (Desf.) Á.Löve, 1944
+Rumex acetosa subsp. arifolius (All.) Blytt &amp; O.C.Dahl, 1903
+Rumex acetosa subsp. amplexicaulis (Lapeyr.) O.Bolòs &amp; Vigo
+Rumex acetosa subsp. lapponicus Hiitonen, 1933
+Rumex acetosa subsp. montanus (Desf.) Berher, 1887
+Rumex allionii Link, 1829,
+Rumex alpestris Jacq., 1762
+Rumex amplexicaulis Lapeyr.
+Rumex carpaticus Rech.f.
+Rumex carpaticus (Zapal.) Zapal.
+Rumex dimorphus Gren.
+Rumex erythrocarpus Gand., 1875,
+Rumex hispanicus C.C.Gmel., 1806,
+Rumex italicus Campd.
+Rumex lapponicus (Hiitonen) Czernov, 1956
+Rumex macrophyllus Campd., 1819,
+Rumex montanus Desf., 1815,
+Rumex pilatensis Gand., 1875,
+Rumex pseudoamplexicaulis Guadagno, 1926
 </t>
         </is>
       </c>
